--- a/Sensor_calibration/ДСГ2.xlsx
+++ b/Sensor_calibration/ДСГ2.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dennis\Desktop\Калибровка рабочего датчика\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B0F21C4-9218-4392-9E0B-060168CC6ABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F7517B-FA4E-4910-8898-05BAEC54B37B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="05-17-2023_09-05-56_Intensity" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="6">
   <si>
     <t>2 na</t>
   </si>
@@ -33,11 +44,17 @@
   <si>
     <t>1 4,526032999999999902e+02</t>
   </si>
+  <si>
+    <t>x0</t>
+  </si>
+  <si>
+    <t>y0</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -669,6 +686,51 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="6"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>'05-17-2023_09-05-56_Intensity'!$M:$M</c:f>
@@ -805,7 +867,7 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="1048576"/>
                 <c:pt idx="0">
-                  <c:v>1.2207031261368599</c:v>
+                  <c:v>1.2207031261368601E-5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2.44140625227373E-5</c:v>
@@ -853,7 +915,7 @@
                   <c:v>17.9999877929687</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>2.4</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>23.9999877929687</c:v>
@@ -877,7 +939,7 @@
                   <c:v>30</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>3.6</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>36.000012207031197</c:v>
@@ -889,7 +951,7 @@
                   <c:v>35.999975585937399</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>4.1999951171875001</c:v>
+                  <c:v>41.999951171874997</c:v>
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>41.999963378906202</c:v>
@@ -901,7 +963,7 @@
                   <c:v>41.999975585937499</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>4.8</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="33">
                   <c:v>48.000012207031197</c:v>
@@ -930,7 +992,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D13C-47DC-85FD-5746FA158E8B}"/>
+              <c16:uniqueId val="{00000000-5563-431E-A669-8DFA3DD9FCEF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -942,11 +1004,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="553452648"/>
-        <c:axId val="553450488"/>
+        <c:axId val="720326840"/>
+        <c:axId val="720333320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="553452648"/>
+        <c:axId val="720326840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1003,12 +1065,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553450488"/>
+        <c:crossAx val="720333320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="553450488"/>
+        <c:axId val="720333320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1065,7 +1127,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="553452648"/>
+        <c:crossAx val="720326840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1681,23 +1743,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>91440</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>396240</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>163830</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E14B1163-D31E-478B-C9B9-C0736B1E9099}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2D70146E-4943-9463-2DE8-CC61E1697CB8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2014,11 +2076,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2043,21 +2105,19 @@
         <v>1</v>
       </c>
       <c r="F1" s="1">
-        <v>1.2207031261368599</v>
+        <v>1.2207031261368601E-5</v>
       </c>
       <c r="G1" s="1">
         <v>329.56479999999902</v>
       </c>
-      <c r="K1" s="1">
-        <f>AVERAGE(B1:B4)</f>
-        <v>239.87132499999925</v>
-      </c>
-      <c r="L1">
-        <f>AVERAGE(C1:C4)</f>
-        <v>227.41467499999951</v>
+      <c r="K1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" t="s">
+        <v>5</v>
       </c>
       <c r="M1">
-        <f>SQRT((B1-$K$1)^2 + (C1-$L$1)^2)</f>
+        <f>SQRT((B1-$K$2)^2 + (C1-$L$2)^2)</f>
         <v>1.0027012921351179</v>
       </c>
     </row>
@@ -2083,8 +2143,16 @@
       <c r="G2" s="1">
         <v>330.31830000000002</v>
       </c>
+      <c r="K2" s="1">
+        <f>AVERAGE(B1:B4)</f>
+        <v>239.87132499999925</v>
+      </c>
+      <c r="L2" s="1">
+        <f>AVERAGE(C1:C4)</f>
+        <v>227.41467499999951</v>
+      </c>
       <c r="M2">
-        <f>SQRT((B2-$K$1)^2 + (C2-$L$1)^2)</f>
+        <f t="shared" ref="M2:M40" si="0">SQRT((B2-$K$2)^2 + (C2-$L$2)^2)</f>
         <v>1.0031276246070804</v>
       </c>
     </row>
@@ -2111,7 +2179,7 @@
         <v>331.52120000000002</v>
       </c>
       <c r="M3">
-        <f t="shared" ref="M2:M40" si="0">SQRT((B3-$K$1)^2 + (C3-$L$1)^2)</f>
+        <f t="shared" si="0"/>
         <v>1.0086235428790979</v>
       </c>
     </row>
@@ -2483,7 +2551,7 @@
         <v>1</v>
       </c>
       <c r="F17" s="1">
-        <v>2.4</v>
+        <v>24</v>
       </c>
       <c r="G17" s="1">
         <v>378.01580000000001</v>
@@ -2699,7 +2767,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="1">
-        <v>3.6</v>
+        <v>36</v>
       </c>
       <c r="G25" s="1">
         <v>409.70659999999901</v>
@@ -2807,7 +2875,7 @@
         <v>1</v>
       </c>
       <c r="F29" s="1">
-        <v>4.1999951171875001</v>
+        <v>41.999951171874997</v>
       </c>
       <c r="G29" s="1">
         <v>429.24059999999901</v>
@@ -2915,7 +2983,7 @@
         <v>1</v>
       </c>
       <c r="F33" s="1">
-        <v>4.8</v>
+        <v>48</v>
       </c>
       <c r="G33" t="s">
         <v>3</v>
